--- a/Новая таблица (1).xlsx
+++ b/Новая таблица (1).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="450" yWindow="690" windowWidth="18600" windowHeight="11235"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Категории (10)</t>
   </si>
@@ -167,13 +167,19 @@
   </si>
   <si>
     <t>проверить что товары удаляются</t>
+  </si>
+  <si>
+    <t>пройден</t>
+  </si>
+  <si>
+    <t>провален</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -378,19 +384,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -602,242 +609,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="59.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+      <c r="C1" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="C2" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="16"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="C3" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="C4" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="C5" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="C6" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="C7" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
+      <c r="C8" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="C9" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="C10" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="16"/>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="16"/>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="16"/>
+      <c r="B24" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:4">
+      <c r="A26" s="15"/>
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:4">
+      <c r="A28" s="15"/>
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+    <row r="29" spans="1:4">
+      <c r="A29" s="16"/>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:4">
+      <c r="A31" s="15"/>
       <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:4">
+      <c r="A32" s="15"/>
       <c r="B32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:4">
+      <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+    <row r="34" spans="1:4">
+      <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
@@ -846,7 +883,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>37</v>
       </c>
@@ -855,8 +892,8 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -864,46 +901,46 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="16"/>
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
+    <row r="40" spans="1:4">
+      <c r="A40" s="15"/>
       <c r="B40" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:4">
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
+    <row r="42" spans="1:4">
+      <c r="A42" s="15"/>
       <c r="B42" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:4">
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
+    <row r="44" spans="1:4">
+      <c r="A44" s="16"/>
       <c r="B44" s="11" t="s">
         <v>9</v>
       </c>
